--- a/Doc/xlsx/Bullet.xlsx
+++ b/Doc/xlsx/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12180"/>
+    <workbookView windowWidth="25095" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>note</t>
   </si>
@@ -132,22 +132,13 @@
     <t>箭</t>
   </si>
   <si>
-    <t>Arrow</t>
-  </si>
-  <si>
     <t>跟踪弹</t>
   </si>
   <si>
-    <t>TrackingBomb</t>
-  </si>
-  <si>
     <t>res/img/smoke.png</t>
   </si>
   <si>
     <t>蜘蛛卵</t>
-  </si>
-  <si>
-    <t>SpiderEgg</t>
   </si>
 </sst>
 </file>
@@ -155,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -168,36 +159,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,46 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +211,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -272,16 +248,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,30 +281,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,187 +324,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,29 +535,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,23 +575,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,153 +604,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,14 +1093,17 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="10" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1303,7 +1297,7 @@
         <v>34</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>33</v>
@@ -1355,8 +1349,8 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>36</v>
+      <c r="K5" s="1">
+        <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>36</v>
@@ -1408,8 +1402,8 @@
       <c r="J6">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
-        <v>38</v>
+      <c r="K6">
+        <v>3001</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1432,7 +1426,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1461,11 +1455,11 @@
       <c r="J7">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
-        <v>40</v>
+      <c r="K7">
+        <v>3002</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1485,7 +1479,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1514,8 +1508,8 @@
       <c r="J8">
         <v>30</v>
       </c>
-      <c r="K8" t="s">
-        <v>43</v>
+      <c r="K8">
+        <v>3003</v>
       </c>
       <c r="L8">
         <v>0</v>

--- a/Doc/xlsx/Bullet.xlsx
+++ b/Doc/xlsx/Bullet.xlsx
@@ -159,29 +159,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,9 +256,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,35 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -248,48 +288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,13 +324,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,169 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,8 +535,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -572,24 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,11 +591,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,148 +620,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,17 +1093,26 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="12.875" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
+    <col min="16" max="16" width="13.625" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">

--- a/Doc/xlsx/Bullet.xlsx
+++ b/Doc/xlsx/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12600"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -158,6 +158,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -165,86 +173,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,17 +197,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,16 +280,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,13 +304,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,43 +324,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,25 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,19 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,19 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,61 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,6 +515,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,11 +574,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,54 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -615,153 +604,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G6">
         <v>0</v>

--- a/Doc/xlsx/Bullet.xlsx
+++ b/Doc/xlsx/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="25095" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>note</t>
   </si>
@@ -36,9 +36,6 @@
     <t>flySpeed</t>
   </si>
   <si>
-    <t>findTargetDelay</t>
-  </si>
-  <si>
     <t>maxLifeTime</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>速度</t>
-  </si>
-  <si>
-    <t>延迟锁定目标时间/秒</t>
   </si>
   <si>
     <t>生命时间/秒</t>
@@ -146,9 +140,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -158,24 +152,98 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,11 +257,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,104 +297,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,25 +318,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,157 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,56 +512,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +526,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,19 +559,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,148 +614,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1102,20 +1096,19 @@
     <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="14.25" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
-    <col min="15" max="15" width="14.375" customWidth="1"/>
-    <col min="16" max="16" width="13.625" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="14" max="14" width="14.375" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,11 +1157,8 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1217,172 +1207,160 @@
       <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="2" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>37</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1400,42 +1378,39 @@
         <v>250</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <v>20</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>3001</v>
       </c>
       <c r="K6">
-        <v>3001</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="O6">
-        <v>11</v>
-      </c>
       <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1453,42 +1428,39 @@
         <v>200</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <v>20</v>
       </c>
       <c r="J7">
-        <v>20</v>
-      </c>
-      <c r="K7">
         <v>3002</v>
       </c>
-      <c r="L7" t="s">
-        <v>39</v>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="O7">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1506,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>30</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>3003</v>
       </c>
       <c r="K8">
-        <v>3003</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1530,12 +1502,9 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
         <v>3001</v>
       </c>
     </row>

--- a/Doc/xlsx/Bullet.xlsx
+++ b/Doc/xlsx/Bullet.xlsx
@@ -129,7 +129,7 @@
     <t>跟踪弹</t>
   </si>
   <si>
-    <t>res/img/smoke.png</t>
+    <t>smoke.png</t>
   </si>
   <si>
     <t>蜘蛛卵</t>
@@ -142,8 +142,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -153,43 +153,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +174,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -211,8 +189,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -221,7 +228,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,38 +273,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,13 +318,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,169 +486,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,17 +515,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,21 +543,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,17 +571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,153 +594,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -833,7 +833,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1086,8 +1086,8 @@
   <sheetPr/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
